--- a/Source Workbooks Testing/Test Case 1.xlsx
+++ b/Source Workbooks Testing/Test Case 1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C309E3-9B2E-466A-9416-C1CE8998917F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CA6999-48E4-49D9-B954-2C1DA0AE4196}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Project 1" sheetId="1" r:id="rId1"/>
     <sheet name="Project 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,40 +21,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>NOT</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>DANGER</t>
-  </si>
-  <si>
-    <t>THE</t>
-  </si>
-  <si>
-    <t>One</t>
-  </si>
-  <si>
-    <t>Who</t>
-  </si>
-  <si>
-    <t>Knocks</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Team A P2</t>
+  </si>
+  <si>
+    <t>Team A P1</t>
+  </si>
+  <si>
+    <t>Email A P2</t>
+  </si>
+  <si>
+    <t>Phone A P2</t>
+  </si>
+  <si>
+    <t>Budget A P2</t>
+  </si>
+  <si>
+    <t>Email A P1</t>
+  </si>
+  <si>
+    <t>Phone A P1</t>
+  </si>
+  <si>
+    <t>Budget A P1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +61,13 @@
     </font>
     <font>
       <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -90,9 +94,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,44 +381,38 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="6" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
   </sheetData>
@@ -424,37 +423,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6529046B-4C49-43C8-B658-F5394591DDA9}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A2:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="18.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Source Workbooks Testing/Test Case 1.xlsx
+++ b/Source Workbooks Testing/Test Case 1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CA6999-48E4-49D9-B954-2C1DA0AE4196}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5BAF51-DC2D-49E4-840E-6DFA4AC1E1A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Source Workbooks Testing/Test Case 1.xlsx
+++ b/Source Workbooks Testing/Test Case 1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5BAF51-DC2D-49E4-840E-6DFA4AC1E1A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B228AE33-388B-493F-8C1C-AE262CB9F354}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,7 +381,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="L23" sqref="L22:L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
